--- a/data/hotels_by_city/Dallas/Dallas_shard_598.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_598.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="183">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,454 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r529648265-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>56852</t>
+  </si>
+  <si>
+    <t>126411</t>
+  </si>
+  <si>
+    <t>529648265</t>
+  </si>
+  <si>
+    <t>October 3, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r517166030-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>517166030</t>
+  </si>
+  <si>
+    <t>08/24/2017</t>
+  </si>
+  <si>
+    <t>Noise problem next door- No sleep- Stay somewhere ese</t>
+  </si>
+  <si>
+    <t>Complained three times to manager about noise problem room 113 next door kept TV on all night- Manager finally called me back after 4 days and said we did not have noise problem- WARNING Motel 6 Guest Relations will not help you with any problems because it is left up to Independent Motel Manager- Manager did offer 50 percent off next time ( wanted full refund which she would not do) Why would I go back to motel when they could resolve noise problem&gt;MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Waxahachie, responded to this reviewResponded August 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2017</t>
+  </si>
+  <si>
+    <t>Complained three times to manager about noise problem room 113 next door kept TV on all night- Manager finally called me back after 4 days and said we did not have noise problem- WARNING Motel 6 Guest Relations will not help you with any problems because it is left up to Independent Motel Manager- Manager did offer 50 percent off next time ( wanted full refund which she would not do) Why would I go back to motel when they could resolve noise problem&gt;More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r490294206-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>490294206</t>
+  </si>
+  <si>
+    <t>06/04/2017</t>
+  </si>
+  <si>
+    <t>Keep driving</t>
+  </si>
+  <si>
+    <t>This is a motel that must allow weekly rentals. All night long people were hanging out on side walk drinking yelling ect. Was literally afraid to walk mt dog. I left at 4 am, giving up getting any sleep. Room was 67.00. High for a dump. At 2 am my phone in room rang repeatedly,  have no clue what that was about. When I called the desk to complain,  the next morning the guy hung up on me. For safety reasons I did not ask for anyone to come and break up the party last night. Did not need some stupid hotel clerk telling anyone I complained.  Drive on don't stop.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>This is a motel that must allow weekly rentals. All night long people were hanging out on side walk drinking yelling ect. Was literally afraid to walk mt dog. I left at 4 am, giving up getting any sleep. Room was 67.00. High for a dump. At 2 am my phone in room rang repeatedly,  have no clue what that was about. When I called the desk to complain,  the next morning the guy hung up on me. For safety reasons I did not ask for anyone to come and break up the party last night. Did not need some stupid hotel clerk telling anyone I complained.  Drive on don't stop.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r417778540-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>417778540</t>
+  </si>
+  <si>
+    <t>09/12/2016</t>
+  </si>
+  <si>
+    <t>Nightmare night</t>
+  </si>
+  <si>
+    <t>Worst hotel I have ever stayed at in my life. The room was extremely dirty...... But let's be honest it's a motel 6 we need to lower our standards. I tried to take a drip in the pool but there whereHey girl I wanted to see if you were still wanting to play rings or if you are picking up with that other team we have 7 girls and we are playing 6-4 so we do have a few girls on the team more Hey girl I wanted to see if you were still wanting to play rings or if you are picking up with that other team we have 7 girls and we are playing 6-4 so we do have a few girls on the team pubic hairs in the pools then I was ok with. Sure construction works looked at me up and down like I was a piece of meat. The sheets were dirty and the bathroom was a place I wish I didn't have to use. We all expect this from a motel six..........until someone breaks into your room at 2:45 am. I jumped out of bed and screamed my head off, I was so traumatized by the situation.  It was so unbelievable life changing. the hotel completely blew If off. They had no understanding or compassion. Please for your safety never, ever stay there. It's unsafe and it has changed my life forever. This sweet...Worst hotel I have ever stayed at in my life. The room was extremely dirty...... But let's be honest it's a motel 6 we need to lower our standards. I tried to take a drip in the pool but there whereHey girl I wanted to see if you were still wanting to play rings or if you are picking up with that other team we have 7 girls and we are playing 6-4 so we do have a few girls on the team more Hey girl I wanted to see if you were still wanting to play rings or if you are picking up with that other team we have 7 girls and we are playing 6-4 so we do have a few girls on the team pubic hairs in the pools then I was ok with. Sure construction works looked at me up and down like I was a piece of meat. The sheets were dirty and the bathroom was a place I wish I didn't have to use. We all expect this from a motel six..........until someone breaks into your room at 2:45 am. I jumped out of bed and screamed my head off, I was so traumatized by the situation.  It was so unbelievable life changing. the hotel completely blew If off. They had no understanding or compassion. Please for your safety never, ever stay there. It's unsafe and it has changed my life forever. This sweet Indiana girl will learn to use a gun. This stay at this hotel has changed me forever.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Worst hotel I have ever stayed at in my life. The room was extremely dirty...... But let's be honest it's a motel 6 we need to lower our standards. I tried to take a drip in the pool but there whereHey girl I wanted to see if you were still wanting to play rings or if you are picking up with that other team we have 7 girls and we are playing 6-4 so we do have a few girls on the team more Hey girl I wanted to see if you were still wanting to play rings or if you are picking up with that other team we have 7 girls and we are playing 6-4 so we do have a few girls on the team pubic hairs in the pools then I was ok with. Sure construction works looked at me up and down like I was a piece of meat. The sheets were dirty and the bathroom was a place I wish I didn't have to use. We all expect this from a motel six..........until someone breaks into your room at 2:45 am. I jumped out of bed and screamed my head off, I was so traumatized by the situation.  It was so unbelievable life changing. the hotel completely blew If off. They had no understanding or compassion. Please for your safety never, ever stay there. It's unsafe and it has changed my life forever. This sweet...Worst hotel I have ever stayed at in my life. The room was extremely dirty...... But let's be honest it's a motel 6 we need to lower our standards. I tried to take a drip in the pool but there whereHey girl I wanted to see if you were still wanting to play rings or if you are picking up with that other team we have 7 girls and we are playing 6-4 so we do have a few girls on the team more Hey girl I wanted to see if you were still wanting to play rings or if you are picking up with that other team we have 7 girls and we are playing 6-4 so we do have a few girls on the team pubic hairs in the pools then I was ok with. Sure construction works looked at me up and down like I was a piece of meat. The sheets were dirty and the bathroom was a place I wish I didn't have to use. We all expect this from a motel six..........until someone breaks into your room at 2:45 am. I jumped out of bed and screamed my head off, I was so traumatized by the situation.  It was so unbelievable life changing. the hotel completely blew If off. They had no understanding or compassion. Please for your safety never, ever stay there. It's unsafe and it has changed my life forever. This sweet Indiana girl will learn to use a gun. This stay at this hotel has changed me forever.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r390433093-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>390433093</t>
+  </si>
+  <si>
+    <t>07/08/2016</t>
+  </si>
+  <si>
+    <t>Great motel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awesome staff, check in was prompt and although I had mistakenly booked a smoking room, the front desk caught my mistake and put us in a ground floor non smoking room. Very well maintained property and pool. Updated rooms. Delicious coffee in the lobby. Will return if staying in the area </t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r390182827-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>390182827</t>
+  </si>
+  <si>
+    <t>07/07/2016</t>
+  </si>
+  <si>
+    <t>Clean</t>
+  </si>
+  <si>
+    <t>We're travelling through USA and after being on the road for 12 hours we booked into this Motel. The clerk was very friendly the room was basic but clean the bed comfortable. Had a wonderful sleep, unlimited coffee in reception in the morning.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r313602258-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>313602258</t>
+  </si>
+  <si>
+    <t>09/25/2015</t>
+  </si>
+  <si>
+    <t>My stay at this motel was awesome</t>
+  </si>
+  <si>
+    <t>I could not believe the $39.99 price and then I used a ARP for even more of a discount got to the motel the motel clerk gave me room 218 went to room 218 open the door bed was not made room was not clean this was about to 2:30 in the afternoon went back to the front desk he gave me room 111 the room was excellent clean smell good I cannot believe why this motel hasn't got a higher rating my stay was unbelievable very clean neat motel flat screen TV on the wall this is my only complaint it was boxed in speakers were muscle because of itMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I could not believe the $39.99 price and then I used a ARP for even more of a discount got to the motel the motel clerk gave me room 218 went to room 218 open the door bed was not made room was not clean this was about to 2:30 in the afternoon went back to the front desk he gave me room 111 the room was excellent clean smell good I cannot believe why this motel hasn't got a higher rating my stay was unbelievable very clean neat motel flat screen TV on the wall this is my only complaint it was boxed in speakers were muscle because of itMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r311891521-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>311891521</t>
+  </si>
+  <si>
+    <t>09/19/2015</t>
+  </si>
+  <si>
+    <t>Stay somewhere else, difficult access from interstate, no food, gas or services nearby,</t>
+  </si>
+  <si>
+    <t>Stay somewhere else, difficult access from interstate, no food, gas or services nearby, rooms poorly maintained, locks may not work. Have to drive into town for just even a McDonalds. Please see my pictures. holes in bathroom door, beadspread, security lock on room door non-operableMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Waxahachie, responded to this reviewResponded September 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2015</t>
+  </si>
+  <si>
+    <t>Stay somewhere else, difficult access from interstate, no food, gas or services nearby, rooms poorly maintained, locks may not work. Have to drive into town for just even a McDonalds. Please see my pictures. holes in bathroom door, beadspread, security lock on room door non-operableMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r308985517-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>308985517</t>
+  </si>
+  <si>
+    <t>09/10/2015</t>
+  </si>
+  <si>
+    <t>Don't Stay Here!</t>
+  </si>
+  <si>
+    <t>This was obviously a nice place when it was new, four or five years ago. Right now it's horrible. These people don't clean anything and EVERYTHING I touched was sticky! Something had spilled on one side of the TV table . . . and they just left it there!The floor is faux wood, which is fine, it actually looks really nice. When I took my shoes off however, I discovered my feet were sticking to the floor everywhere I stepped. They really lost me on that one . . .The thermostat on the A/C unit was broken so it was either freezing or off. When it was on, the curtains blew up and you could see into the room from outside. I ended up pinning the curtains to the windowsill with my shoes.The linens were all stained and the comforter on the bed was basically a colored sheet. When I called the office for a blanket for my wife, the one they brought me was the rattiest thing I've ever seen. The edging was all torn off and it was full of holes . . . it looked like he'd just dragged it off his own bed!Outside the room the paint was peeling and the overhead light was covered with cobwebs and full of dead bugs.These people should NOT be managing a motel . . .MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Waxahachie, responded to this reviewResponded September 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2015</t>
+  </si>
+  <si>
+    <t>This was obviously a nice place when it was new, four or five years ago. Right now it's horrible. These people don't clean anything and EVERYTHING I touched was sticky! Something had spilled on one side of the TV table . . . and they just left it there!The floor is faux wood, which is fine, it actually looks really nice. When I took my shoes off however, I discovered my feet were sticking to the floor everywhere I stepped. They really lost me on that one . . .The thermostat on the A/C unit was broken so it was either freezing or off. When it was on, the curtains blew up and you could see into the room from outside. I ended up pinning the curtains to the windowsill with my shoes.The linens were all stained and the comforter on the bed was basically a colored sheet. When I called the office for a blanket for my wife, the one they brought me was the rattiest thing I've ever seen. The edging was all torn off and it was full of holes . . . it looked like he'd just dragged it off his own bed!Outside the room the paint was peeling and the overhead light was covered with cobwebs and full of dead bugs.These people should NOT be managing a motel . . .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r278191597-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>278191597</t>
+  </si>
+  <si>
+    <t>06/05/2015</t>
+  </si>
+  <si>
+    <t>Never ever ever stay here find a camp ground if you cant find a hotel Wal Mart sells tents</t>
+  </si>
+  <si>
+    <t>Ok so we drive up not sure what the problem was but having 2 Waxahachie Police in your drive one being a K-9 unit is never a good thing. So we continue up to the building. Swimming POOL is Swamp Things hotel room. Not pea green or a light lime green no its a swamp. Then we get into the office having much doubt about staying at this point Apu (Simpons reference) is behind the counter can barely understand him as we check in. Figure one night cant be that bad... WRONG.... walk 3 feet into hotel room smell Marijauna see people that have been enjoing the afternoon with copius amounts of beer walking (wobbling) around. This was the shortest stay for me ever I think less than 5 minutes actually in the room. We got a refund and went to another area hotel paid 4x the price for a two night stay but its money well spent considering that we did not want Swamp Thing to visit. MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Waxahachie, responded to this reviewResponded June 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2015</t>
+  </si>
+  <si>
+    <t>Ok so we drive up not sure what the problem was but having 2 Waxahachie Police in your drive one being a K-9 unit is never a good thing. So we continue up to the building. Swimming POOL is Swamp Things hotel room. Not pea green or a light lime green no its a swamp. Then we get into the office having much doubt about staying at this point Apu (Simpons reference) is behind the counter can barely understand him as we check in. Figure one night cant be that bad... WRONG.... walk 3 feet into hotel room smell Marijauna see people that have been enjoing the afternoon with copius amounts of beer walking (wobbling) around. This was the shortest stay for me ever I think less than 5 minutes actually in the room. We got a refund and went to another area hotel paid 4x the price for a two night stay but its money well spent considering that we did not want Swamp Thing to visit. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r274875829-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>274875829</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>"Spartan" would be generous.</t>
+  </si>
+  <si>
+    <t>I chose Motel 6 because of the price, thinking that it couldn't be THAT bad. While the room had a fridge, microwave and television, that was it. The shower curtain looked like it might have had mold on it. There was not one wall that was free of dents. dings, and scratches. I'm not sure that the place was really clean, but I cannot in all honesty say that it wasn't. The desk clerk seemed unhappy that I had interrupted his television watching to ask about in-house services.Truth to be told, since I was there for only one night, and didn't plan to remain any longer, I might have gotten what I paid for. But there was no doubt that they could have done much more to make the place more presentable, welcoming, and comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Waxahachie, responded to this reviewResponded May 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2015</t>
+  </si>
+  <si>
+    <t>I chose Motel 6 because of the price, thinking that it couldn't be THAT bad. While the room had a fridge, microwave and television, that was it. The shower curtain looked like it might have had mold on it. There was not one wall that was free of dents. dings, and scratches. I'm not sure that the place was really clean, but I cannot in all honesty say that it wasn't. The desk clerk seemed unhappy that I had interrupted his television watching to ask about in-house services.Truth to be told, since I was there for only one night, and didn't plan to remain any longer, I might have gotten what I paid for. But there was no doubt that they could have done much more to make the place more presentable, welcoming, and comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r270826196-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>270826196</t>
+  </si>
+  <si>
+    <t>05/08/2015</t>
+  </si>
+  <si>
+    <t>Pool is green on 5/8/15</t>
+  </si>
+  <si>
+    <t>We were gonna stay here for Scarborough fair but as we drive up we noticed the green pool with something slimy floating around on top. The lot is overgrown and it just seems like a bad decision to stay here so we didn't. We went next door to super 8. Their pool is crystal clearMoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Waxahachie, responded to this reviewResponded May 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2015</t>
+  </si>
+  <si>
+    <t>We were gonna stay here for Scarborough fair but as we drive up we noticed the green pool with something slimy floating around on top. The lot is overgrown and it just seems like a bad decision to stay here so we didn't. We went next door to super 8. Their pool is crystal clearMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r230884834-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>230884834</t>
+  </si>
+  <si>
+    <t>09/25/2014</t>
+  </si>
+  <si>
+    <t>Nothing Works</t>
+  </si>
+  <si>
+    <t>The reason Motel 6 Leaves the light on is because it may never come back on again if it was turned off.
+When I first drove up I noticed a structural support on the second floor over the pool appeared to be misaligned, leaning and twisted. Upon entering the lobby I was overwhelmed with a horrid smell, I can't even think of what it could be compared to. 
+Upon checking in the lone staff person seemed very pleasant and at least competent. As she was making the key she said, "If you don't like the room you can switch." So even the staff is well aware that their facilities are subpar and expect complaints.
+I drove around to the aptly named 'backside' of the structure, there's a few anatomical descriptions that are fitting but not much better. Most of the exterior lights have at least two years worth of dead bugs in their covers, and quite a few are missing covers. The paint is peeling in several locations and on the second floor breezeway near room 220 there is an opening to the attic fully opened and accessible to any type of vermin seeking a place to rest, urinate, poop, give birth or even that other function rundown motels are oft used for in stories. The base of the stairs in this breezeway is home to another very unpleasant odor, how it manages to linger outdoors is beyond me.
+Now...The reason Motel 6 Leaves the light on is because it may never come back on again if it was turned off.When I first drove up I noticed a structural support on the second floor over the pool appeared to be misaligned, leaning and twisted. Upon entering the lobby I was overwhelmed with a horrid smell, I can't even think of what it could be compared to. Upon checking in the lone staff person seemed very pleasant and at least competent. As she was making the key she said, "If you don't like the room you can switch." So even the staff is well aware that their facilities are subpar and expect complaints.I drove around to the aptly named 'backside' of the structure, there's a few anatomical descriptions that are fitting but not much better. Most of the exterior lights have at least two years worth of dead bugs in their covers, and quite a few are missing covers. The paint is peeling in several locations and on the second floor breezeway near room 220 there is an opening to the attic fully opened and accessible to any type of vermin seeking a place to rest, urinate, poop, give birth or even that other function rundown motels are oft used for in stories. The base of the stairs in this breezeway is home to another very unpleasant odor, how it manages to linger outdoors is beyond me.Now the room itself. It was freezing cold when I entered it. So at least the AC works well. Kinda. All controls for the AC have been completely ripped out of their console and the only way to 'adjust' the AC is to unplug it from the wall. On the opposite side of the bed there were at least two dead bugs in the middle of the floor (which means there's thousands in the walls and possibly dozens in the bed). There was hair on the floor of the bathroom, and a good size chunk of hair folded up into one of the bath towels. When I tried to wash my hands I found the sink only had hot water. I reached under and turned the cold water on and was promptly met with a stream of cold water running out from somewhere under the sink and all over the floor.This place is a dog pound at best. Definitely not worth the $50 per night stay. Go somewhere else. I am surprised that Motel 6 allows such an operation to use it's corporate name.MoreShow less</t>
+  </si>
+  <si>
+    <t>The reason Motel 6 Leaves the light on is because it may never come back on again if it was turned off.
+When I first drove up I noticed a structural support on the second floor over the pool appeared to be misaligned, leaning and twisted. Upon entering the lobby I was overwhelmed with a horrid smell, I can't even think of what it could be compared to. 
+Upon checking in the lone staff person seemed very pleasant and at least competent. As she was making the key she said, "If you don't like the room you can switch." So even the staff is well aware that their facilities are subpar and expect complaints.
+I drove around to the aptly named 'backside' of the structure, there's a few anatomical descriptions that are fitting but not much better. Most of the exterior lights have at least two years worth of dead bugs in their covers, and quite a few are missing covers. The paint is peeling in several locations and on the second floor breezeway near room 220 there is an opening to the attic fully opened and accessible to any type of vermin seeking a place to rest, urinate, poop, give birth or even that other function rundown motels are oft used for in stories. The base of the stairs in this breezeway is home to another very unpleasant odor, how it manages to linger outdoors is beyond me.
+Now...The reason Motel 6 Leaves the light on is because it may never come back on again if it was turned off.When I first drove up I noticed a structural support on the second floor over the pool appeared to be misaligned, leaning and twisted. Upon entering the lobby I was overwhelmed with a horrid smell, I can't even think of what it could be compared to. Upon checking in the lone staff person seemed very pleasant and at least competent. As she was making the key she said, "If you don't like the room you can switch." So even the staff is well aware that their facilities are subpar and expect complaints.I drove around to the aptly named 'backside' of the structure, there's a few anatomical descriptions that are fitting but not much better. Most of the exterior lights have at least two years worth of dead bugs in their covers, and quite a few are missing covers. The paint is peeling in several locations and on the second floor breezeway near room 220 there is an opening to the attic fully opened and accessible to any type of vermin seeking a place to rest, urinate, poop, give birth or even that other function rundown motels are oft used for in stories. The base of the stairs in this breezeway is home to another very unpleasant odor, how it manages to linger outdoors is beyond me.Now the room itself. It was freezing cold when I entered it. So at least the AC works well. Kinda. All controls for the AC have been completely ripped out of their console and the only way to 'adjust' the AC is to unplug it from the wall. On the opposite side of the bed there were at least two dead bugs in the middle of the floor (which means there's thousands in the walls and possibly dozens in the bed). There was hair on the floor of the bathroom, and a good size chunk of hair folded up into one of the bath towels. When I tried to wash my hands I found the sink only had hot water. I reached under and turned the cold water on and was promptly met with a stream of cold water running out from somewhere under the sink and all over the floor.This place is a dog pound at best. Definitely not worth the $50 per night stay. Go somewhere else. I am surprised that Motel 6 allows such an operation to use it's corporate name.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r189214019-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>189214019</t>
+  </si>
+  <si>
+    <t>01/01/2014</t>
+  </si>
+  <si>
+    <t>Not great but not terrible.</t>
+  </si>
+  <si>
+    <t>Stayed for a night... Checkin was quick and guy was nice. I was there on a Sunday night so there weren't too many people. Biggest complaint was the soda machines were not stocked. It looked somewhat run down inside but that's not unusual for Motel 6. I would go back if on a road trip by myself but wouldn't stay there for any other reason.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r182513715-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>182513715</t>
+  </si>
+  <si>
+    <t>10/26/2013</t>
+  </si>
+  <si>
+    <t>Don't even consider it</t>
+  </si>
+  <si>
+    <t>Everything you'd expect in a slum city motel for only twice the price.Nothing works. TV is broke. Fridge is broke. Microwave is broke. Shower head is broke. Half the outlets don't even have power to them.Bed is horrible. Pillows (2 for king size) are flat. Towels are sandpaper. Shower is filthy (with hair). Carpet is 100% soiled. No standard items at all.New bedspreads with "honeymoon suite" pillows is this places idea of an renovation.Nearly impossible to get to. Nothing nearby. Must drive two miles to head south on 1-35.MoreShow less</t>
+  </si>
+  <si>
+    <t>Motel6, Public Relations Manager at Motel 6 Waxahachie, responded to this reviewResponded October 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2013</t>
+  </si>
+  <si>
+    <t>Everything you'd expect in a slum city motel for only twice the price.Nothing works. TV is broke. Fridge is broke. Microwave is broke. Shower head is broke. Half the outlets don't even have power to them.Bed is horrible. Pillows (2 for king size) are flat. Towels are sandpaper. Shower is filthy (with hair). Carpet is 100% soiled. No standard items at all.New bedspreads with "honeymoon suite" pillows is this places idea of an renovation.Nearly impossible to get to. Nothing nearby. Must drive two miles to head south on 1-35.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r133643366-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>133643366</t>
+  </si>
+  <si>
+    <t>07/06/2012</t>
+  </si>
+  <si>
+    <t>Older Inn; Veryspacious, clean, affordable and well managed.</t>
+  </si>
+  <si>
+    <t>When I first walked in i realized it was older than i expected, but it was very spacious and clean. I had a kingsize bed.  Itg was not the very best mattress, but was comfortable.  It had a loveseat and table, a mini frig and microwave, a coffee maker with coffe supplied, a hairdryer and an older TV about 27" that worked well, cable, and free local calls.  The bathroom vanity was very nice since being older it was open to the bedroom and extremely long with pleanty of room for several people to use.  The newer hotels have a much smaller vanity.  The commode and tub/shower were in adjoining area with private door.  The shower head was excellant which is not always the case.  Overall I was very happy especially with the size of the room and the amenities. The air conditioner worked very well.  Everything worked fine and the management were courteous and friendly/.  The ice machine was close and worked fine.  I would reccommend it as long as you do not want a newer more modern place, but you will not find one in this price range. I had made a previous reservation at the Motel 6 next to it, but when I got to the room I immediately cancelled it. It was terrible.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>When I first walked in i realized it was older than i expected, but it was very spacious and clean. I had a kingsize bed.  Itg was not the very best mattress, but was comfortable.  It had a loveseat and table, a mini frig and microwave, a coffee maker with coffe supplied, a hairdryer and an older TV about 27" that worked well, cable, and free local calls.  The bathroom vanity was very nice since being older it was open to the bedroom and extremely long with pleanty of room for several people to use.  The newer hotels have a much smaller vanity.  The commode and tub/shower were in adjoining area with private door.  The shower head was excellant which is not always the case.  Overall I was very happy especially with the size of the room and the amenities. The air conditioner worked very well.  Everything worked fine and the management were courteous and friendly/.  The ice machine was close and worked fine.  I would reccommend it as long as you do not want a newer more modern place, but you will not find one in this price range. I had made a previous reservation at the Motel 6 next to it, but when I got to the room I immediately cancelled it. It was terrible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r131233140-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>131233140</t>
+  </si>
+  <si>
+    <t>06/03/2012</t>
+  </si>
+  <si>
+    <t>If I could rate negative I would</t>
+  </si>
+  <si>
+    <t>I got four rooms. 1 tv didnt work. The desk guy called me a liar. Nuff said.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r106428562-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>106428562</t>
+  </si>
+  <si>
+    <t>05/01/2011</t>
+  </si>
+  <si>
+    <t>Not the Best</t>
+  </si>
+  <si>
+    <t>Front desk clerk friendly, room smelled very clean.  But, bathroom is tiny, furniture stained.  Sheets are old and thin with only a mattress pad under the sheet.  Bed itself is old and bows in the middle but the worst is the horrendous stain on the box spring that would be very obvious to anyone making a bed.  Were the beds clean and updated to "back" friendly mattresses would be better.  The pool was dirty, cleaning equipment left floating in the pool, dirt covered bottom of pool although clerk states chemicals had been added to pool.  Pool area has weeds grown up through the cracks.  Continental breakfast, Cheerios and Fruit loops with watered down orange juice.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>abviwax, Director of Sales at Motel 6 Waxahachie, responded to this reviewResponded May 5, 2011</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2011</t>
+  </si>
+  <si>
+    <t>Front desk clerk friendly, room smelled very clean.  But, bathroom is tiny, furniture stained.  Sheets are old and thin with only a mattress pad under the sheet.  Bed itself is old and bows in the middle but the worst is the horrendous stain on the box spring that would be very obvious to anyone making a bed.  Were the beds clean and updated to "back" friendly mattresses would be better.  The pool was dirty, cleaning equipment left floating in the pool, dirt covered bottom of pool although clerk states chemicals had been added to pool.  Pool area has weeds grown up through the cracks.  Continental breakfast, Cheerios and Fruit loops with watered down orange juice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r5045306-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>5045306</t>
+  </si>
+  <si>
+    <t>05/08/2006</t>
+  </si>
+  <si>
+    <t>Charming.</t>
+  </si>
+  <si>
+    <t>Location: 
+If you are going to the Scarborough Renaissance Faire in Waxahachie...this is a great place to stay. Only a short drive to the fair grounds (less than a couple of miles!).
+Food:
+The continental breakfast was average with waffles, muffins and pastries. No cereals or juices (or at least not anywhere to be seen!). There are a few vending machines at the entrance to the hotel which were not stocked. There are no restaurants at the hotel exit but if you travel 2 exits north on 35E there are quite a few to choose from. (The Chili's is open till midnight on weekends!) 
+Room:
+Average size, not too small. The bathroom on the other hand is incredibly small with just a toilet and shower behind a closed door. Excellent water pressure! Everything was very clean and well maintained. The A/C was not exceptional but kept it cool...not cold. Coffee maker with actual coffee and plenty of cups. Beds were very clean and comfy. 
+Staff:
+Rita is the rep who checked me in. Make sure she gives your credit card back!
+Sumant is the manager. He has a very pleasant smile and is very happy to be of service. Just ask him for whatever you need and he will do his best to get it for you!  
+Other:
+Somewhere between late check-in at 10:30pm and Chili's at 11:00pm my credit card was lost/stolen. I do not remember Rita at the...Location: If you are going to the Scarborough Renaissance Faire in Waxahachie...this is a great place to stay. Only a short drive to the fair grounds (less than a couple of miles!).Food:The continental breakfast was average with waffles, muffins and pastries. No cereals or juices (or at least not anywhere to be seen!). There are a few vending machines at the entrance to the hotel which were not stocked. There are no restaurants at the hotel exit but if you travel 2 exits north on 35E there are quite a few to choose from. (The Chili's is open till midnight on weekends!) Room:Average size, not too small. The bathroom on the other hand is incredibly small with just a toilet and shower behind a closed door. Excellent water pressure! Everything was very clean and well maintained. The A/C was not exceptional but kept it cool...not cold. Coffee maker with actual coffee and plenty of cups. Beds were very clean and comfy. Staff:Rita is the rep who checked me in. Make sure she gives your credit card back!Sumant is the manager. He has a very pleasant smile and is very happy to be of service. Just ask him for whatever you need and he will do his best to get it for you!   Other:Somewhere between late check-in at 10:30pm and Chili's at 11:00pm my credit card was lost/stolen. I do not remember Rita at the front desk giving the card back to me and when we got back to the hotel at about 11:45pm I checked with the front desk. She had already left for the night and there was no credit card left behind. Sumant said he would check with her in the morning. Now maybe she did return it and it fell out of my pocket at Chili's but by 6:30am the next morning there was $378.00 already out of my account. The moral of this story...make sure you know where you credit card is!!! Sumant, again as helpful as can be, reversed the charges and allowed me to place the amount on another card. We went on to the Scarborough Faire (which is not as good as the Renaissance Festival down in Plantersville) and had a grand time!MoreShow less</t>
+  </si>
+  <si>
+    <t>Location: 
+If you are going to the Scarborough Renaissance Faire in Waxahachie...this is a great place to stay. Only a short drive to the fair grounds (less than a couple of miles!).
+Food:
+The continental breakfast was average with waffles, muffins and pastries. No cereals or juices (or at least not anywhere to be seen!). There are a few vending machines at the entrance to the hotel which were not stocked. There are no restaurants at the hotel exit but if you travel 2 exits north on 35E there are quite a few to choose from. (The Chili's is open till midnight on weekends!) 
+Room:
+Average size, not too small. The bathroom on the other hand is incredibly small with just a toilet and shower behind a closed door. Excellent water pressure! Everything was very clean and well maintained. The A/C was not exceptional but kept it cool...not cold. Coffee maker with actual coffee and plenty of cups. Beds were very clean and comfy. 
+Staff:
+Rita is the rep who checked me in. Make sure she gives your credit card back!
+Sumant is the manager. He has a very pleasant smile and is very happy to be of service. Just ask him for whatever you need and he will do his best to get it for you!  
+Other:
+Somewhere between late check-in at 10:30pm and Chili's at 11:00pm my credit card was lost/stolen. I do not remember Rita at the...Location: If you are going to the Scarborough Renaissance Faire in Waxahachie...this is a great place to stay. Only a short drive to the fair grounds (less than a couple of miles!).Food:The continental breakfast was average with waffles, muffins and pastries. No cereals or juices (or at least not anywhere to be seen!). There are a few vending machines at the entrance to the hotel which were not stocked. There are no restaurants at the hotel exit but if you travel 2 exits north on 35E there are quite a few to choose from. (The Chili's is open till midnight on weekends!) Room:Average size, not too small. The bathroom on the other hand is incredibly small with just a toilet and shower behind a closed door. Excellent water pressure! Everything was very clean and well maintained. The A/C was not exceptional but kept it cool...not cold. Coffee maker with actual coffee and plenty of cups. Beds were very clean and comfy. Staff:Rita is the rep who checked me in. Make sure she gives your credit card back!Sumant is the manager. He has a very pleasant smile and is very happy to be of service. Just ask him for whatever you need and he will do his best to get it for you!   Other:Somewhere between late check-in at 10:30pm and Chili's at 11:00pm my credit card was lost/stolen. I do not remember Rita at the front desk giving the card back to me and when we got back to the hotel at about 11:45pm I checked with the front desk. She had already left for the night and there was no credit card left behind. Sumant said he would check with her in the morning. Now maybe she did return it and it fell out of my pocket at Chili's but by 6:30am the next morning there was $378.00 already out of my account. The moral of this story...make sure you know where you credit card is!!! Sumant, again as helpful as can be, reversed the charges and allowed me to place the amount on another card. We went on to the Scarborough Faire (which is not as good as the Renaissance Festival down in Plantersville) and had a grand time!More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +1093,1179 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>21266</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s"/>
+      <c r="L2" t="s"/>
+      <c r="M2" t="s"/>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>21266</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>56</v>
+      </c>
+      <c r="X3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>21266</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>21266</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>21266</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>21266</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>79</v>
+      </c>
+      <c r="O7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>21266</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" t="s">
+        <v>92</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>21266</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>91</v>
+      </c>
+      <c r="O9" t="s">
+        <v>99</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>100</v>
+      </c>
+      <c r="X9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>21266</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" t="s">
+        <v>80</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>108</v>
+      </c>
+      <c r="X10" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>21266</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>116</v>
+      </c>
+      <c r="X11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>21266</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s">
+        <v>123</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>124</v>
+      </c>
+      <c r="O12" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>125</v>
+      </c>
+      <c r="X12" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>21266</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" t="s">
+        <v>130</v>
+      </c>
+      <c r="K13" t="s">
+        <v>131</v>
+      </c>
+      <c r="L13" t="s">
+        <v>132</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>133</v>
+      </c>
+      <c r="X13" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>21266</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>137</v>
+      </c>
+      <c r="J14" t="s">
+        <v>138</v>
+      </c>
+      <c r="K14" t="s">
+        <v>139</v>
+      </c>
+      <c r="L14" t="s">
+        <v>140</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>21266</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" t="s">
+        <v>144</v>
+      </c>
+      <c r="K15" t="s">
+        <v>145</v>
+      </c>
+      <c r="L15" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>147</v>
+      </c>
+      <c r="O15" t="s">
+        <v>99</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>21266</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16" t="s">
+        <v>152</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>153</v>
+      </c>
+      <c r="X16" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>21266</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>157</v>
+      </c>
+      <c r="J17" t="s">
+        <v>158</v>
+      </c>
+      <c r="K17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L17" t="s">
+        <v>160</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>161</v>
+      </c>
+      <c r="O17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>21266</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>164</v>
+      </c>
+      <c r="J18" t="s">
+        <v>165</v>
+      </c>
+      <c r="K18" t="s">
+        <v>166</v>
+      </c>
+      <c r="L18" t="s">
+        <v>167</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>161</v>
+      </c>
+      <c r="O18" t="s">
+        <v>65</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>21266</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>168</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>169</v>
+      </c>
+      <c r="J19" t="s">
+        <v>170</v>
+      </c>
+      <c r="K19" t="s">
+        <v>171</v>
+      </c>
+      <c r="L19" t="s">
+        <v>172</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>173</v>
+      </c>
+      <c r="O19" t="s">
+        <v>80</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>174</v>
+      </c>
+      <c r="X19" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>21266</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>177</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>178</v>
+      </c>
+      <c r="J20" t="s">
+        <v>179</v>
+      </c>
+      <c r="K20" t="s">
+        <v>180</v>
+      </c>
+      <c r="L20" t="s">
+        <v>181</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>182</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_598.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_598.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="202">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>PegiSioux</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -165,6 +168,9 @@
     <t>October 3, 2017</t>
   </si>
   <si>
+    <t>Gary L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r517166030-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -195,6 +201,9 @@
     <t>Complained three times to manager about noise problem room 113 next door kept TV on all night- Manager finally called me back after 4 days and said we did not have noise problem- WARNING Motel 6 Guest Relations will not help you with any problems because it is left up to Independent Motel Manager- Manager did offer 50 percent off next time ( wanted full refund which she would not do) Why would I go back to motel when they could resolve noise problem&gt;More</t>
   </si>
   <si>
+    <t>Iris M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r490294206-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t>This is a motel that must allow weekly rentals. All night long people were hanging out on side walk drinking yelling ect. Was literally afraid to walk mt dog. I left at 4 am, giving up getting any sleep. Room was 67.00. High for a dump. At 2 am my phone in room rang repeatedly,  have no clue what that was about. When I called the desk to complain,  the next morning the guy hung up on me. For safety reasons I did not ask for anyone to come and break up the party last night. Did not need some stupid hotel clerk telling anyone I complained.  Drive on don't stop.More</t>
   </si>
   <si>
+    <t>Darren H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r417778540-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -240,6 +252,9 @@
     <t>Worst hotel I have ever stayed at in my life. The room was extremely dirty...... But let's be honest it's a motel 6 we need to lower our standards. I tried to take a drip in the pool but there whereHey girl I wanted to see if you were still wanting to play rings or if you are picking up with that other team we have 7 girls and we are playing 6-4 so we do have a few girls on the team more Hey girl I wanted to see if you were still wanting to play rings or if you are picking up with that other team we have 7 girls and we are playing 6-4 so we do have a few girls on the team pubic hairs in the pools then I was ok with. Sure construction works looked at me up and down like I was a piece of meat. The sheets were dirty and the bathroom was a place I wish I didn't have to use. We all expect this from a motel six..........until someone breaks into your room at 2:45 am. I jumped out of bed and screamed my head off, I was so traumatized by the situation.  It was so unbelievable life changing. the hotel completely blew If off. They had no understanding or compassion. Please for your safety never, ever stay there. It's unsafe and it has changed my life forever. This sweet...Worst hotel I have ever stayed at in my life. The room was extremely dirty...... But let's be honest it's a motel 6 we need to lower our standards. I tried to take a drip in the pool but there whereHey girl I wanted to see if you were still wanting to play rings or if you are picking up with that other team we have 7 girls and we are playing 6-4 so we do have a few girls on the team more Hey girl I wanted to see if you were still wanting to play rings or if you are picking up with that other team we have 7 girls and we are playing 6-4 so we do have a few girls on the team pubic hairs in the pools then I was ok with. Sure construction works looked at me up and down like I was a piece of meat. The sheets were dirty and the bathroom was a place I wish I didn't have to use. We all expect this from a motel six..........until someone breaks into your room at 2:45 am. I jumped out of bed and screamed my head off, I was so traumatized by the situation.  It was so unbelievable life changing. the hotel completely blew If off. They had no understanding or compassion. Please for your safety never, ever stay there. It's unsafe and it has changed my life forever. This sweet Indiana girl will learn to use a gun. This stay at this hotel has changed me forever.More</t>
   </si>
   <si>
+    <t>Lisa S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r390433093-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -261,6 +276,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Louise H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r390182827-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -276,6 +294,9 @@
     <t>We're travelling through USA and after being on the road for 12 hours we booked into this Motel. The clerk was very friendly the room was basic but clean the bed comfortable. Had a wonderful sleep, unlimited coffee in reception in the morning.</t>
   </si>
   <si>
+    <t>77elven</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r313602258-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -300,6 +321,9 @@
     <t>I could not believe the $39.99 price and then I used a ARP for even more of a discount got to the motel the motel clerk gave me room 218 went to room 218 open the door bed was not made room was not clean this was about to 2:30 in the afternoon went back to the front desk he gave me room 111 the room was excellent clean smell good I cannot believe why this motel hasn't got a higher rating my stay was unbelievable very clean neat motel flat screen TV on the wall this is my only complaint it was boxed in speakers were muscle because of itMore</t>
   </si>
   <si>
+    <t>Robert R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r311891521-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -327,6 +351,9 @@
     <t>Stay somewhere else, difficult access from interstate, no food, gas or services nearby, rooms poorly maintained, locks may not work. Have to drive into town for just even a McDonalds. Please see my pictures. holes in bathroom door, beadspread, security lock on room door non-operableMore</t>
   </si>
   <si>
+    <t>gordon61</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r308985517-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -351,6 +378,9 @@
     <t>This was obviously a nice place when it was new, four or five years ago. Right now it's horrible. These people don't clean anything and EVERYTHING I touched was sticky! Something had spilled on one side of the TV table . . . and they just left it there!The floor is faux wood, which is fine, it actually looks really nice. When I took my shoes off however, I discovered my feet were sticking to the floor everywhere I stepped. They really lost me on that one . . .The thermostat on the A/C unit was broken so it was either freezing or off. When it was on, the curtains blew up and you could see into the room from outside. I ended up pinning the curtains to the windowsill with my shoes.The linens were all stained and the comforter on the bed was basically a colored sheet. When I called the office for a blanket for my wife, the one they brought me was the rattiest thing I've ever seen. The edging was all torn off and it was full of holes . . . it looked like he'd just dragged it off his own bed!Outside the room the paint was peeling and the overhead light was covered with cobwebs and full of dead bugs.These people should NOT be managing a motel . . .More</t>
   </si>
   <si>
+    <t>Robert A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r278191597-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -375,6 +405,9 @@
     <t>Ok so we drive up not sure what the problem was but having 2 Waxahachie Police in your drive one being a K-9 unit is never a good thing. So we continue up to the building. Swimming POOL is Swamp Things hotel room. Not pea green or a light lime green no its a swamp. Then we get into the office having much doubt about staying at this point Apu (Simpons reference) is behind the counter can barely understand him as we check in. Figure one night cant be that bad... WRONG.... walk 3 feet into hotel room smell Marijauna see people that have been enjoing the afternoon with copius amounts of beer walking (wobbling) around. This was the shortest stay for me ever I think less than 5 minutes actually in the room. We got a refund and went to another area hotel paid 4x the price for a two night stay but its money well spent considering that we did not want Swamp Thing to visit. More</t>
   </si>
   <si>
+    <t>abbennett</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r274875829-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -402,6 +435,9 @@
     <t>I chose Motel 6 because of the price, thinking that it couldn't be THAT bad. While the room had a fridge, microwave and television, that was it. The shower curtain looked like it might have had mold on it. There was not one wall that was free of dents. dings, and scratches. I'm not sure that the place was really clean, but I cannot in all honesty say that it wasn't. The desk clerk seemed unhappy that I had interrupted his television watching to ask about in-house services.Truth to be told, since I was there for only one night, and didn't plan to remain any longer, I might have gotten what I paid for. But there was no doubt that they could have done much more to make the place more presentable, welcoming, and comfortable.More</t>
   </si>
   <si>
+    <t>669MikeH669</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r270826196-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -424,6 +460,9 @@
   </si>
   <si>
     <t>We were gonna stay here for Scarborough fair but as we drive up we noticed the green pool with something slimy floating around on top. The lot is overgrown and it just seems like a bad decision to stay here so we didn't. We went next door to super 8. Their pool is crystal clearMore</t>
+  </si>
+  <si>
+    <t>Nilrem435</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r230884834-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
@@ -452,6 +491,9 @@
 Now...The reason Motel 6 Leaves the light on is because it may never come back on again if it was turned off.When I first drove up I noticed a structural support on the second floor over the pool appeared to be misaligned, leaning and twisted. Upon entering the lobby I was overwhelmed with a horrid smell, I can't even think of what it could be compared to. Upon checking in the lone staff person seemed very pleasant and at least competent. As she was making the key she said, "If you don't like the room you can switch." So even the staff is well aware that their facilities are subpar and expect complaints.I drove around to the aptly named 'backside' of the structure, there's a few anatomical descriptions that are fitting but not much better. Most of the exterior lights have at least two years worth of dead bugs in their covers, and quite a few are missing covers. The paint is peeling in several locations and on the second floor breezeway near room 220 there is an opening to the attic fully opened and accessible to any type of vermin seeking a place to rest, urinate, poop, give birth or even that other function rundown motels are oft used for in stories. The base of the stairs in this breezeway is home to another very unpleasant odor, how it manages to linger outdoors is beyond me.Now the room itself. It was freezing cold when I entered it. So at least the AC works well. Kinda. All controls for the AC have been completely ripped out of their console and the only way to 'adjust' the AC is to unplug it from the wall. On the opposite side of the bed there were at least two dead bugs in the middle of the floor (which means there's thousands in the walls and possibly dozens in the bed). There was hair on the floor of the bathroom, and a good size chunk of hair folded up into one of the bath towels. When I tried to wash my hands I found the sink only had hot water. I reached under and turned the cold water on and was promptly met with a stream of cold water running out from somewhere under the sink and all over the floor.This place is a dog pound at best. Definitely not worth the $50 per night stay. Go somewhere else. I am surprised that Motel 6 allows such an operation to use it's corporate name.More</t>
   </si>
   <si>
+    <t>RogerTheChipGuy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r189214019-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -470,6 +512,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>JamesPMason</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r182513715-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -494,6 +539,9 @@
     <t>Everything you'd expect in a slum city motel for only twice the price.Nothing works. TV is broke. Fridge is broke. Microwave is broke. Shower head is broke. Half the outlets don't even have power to them.Bed is horrible. Pillows (2 for king size) are flat. Towels are sandpaper. Shower is filthy (with hair). Carpet is 100% soiled. No standard items at all.New bedspreads with "honeymoon suite" pillows is this places idea of an renovation.Nearly impossible to get to. Nothing nearby. Must drive two miles to head south on 1-35.More</t>
   </si>
   <si>
+    <t>maco s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r133643366-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -515,6 +563,9 @@
     <t>When I first walked in i realized it was older than i expected, but it was very spacious and clean. I had a kingsize bed.  Itg was not the very best mattress, but was comfortable.  It had a loveseat and table, a mini frig and microwave, a coffee maker with coffe supplied, a hairdryer and an older TV about 27" that worked well, cable, and free local calls.  The bathroom vanity was very nice since being older it was open to the bedroom and extremely long with pleanty of room for several people to use.  The newer hotels have a much smaller vanity.  The commode and tub/shower were in adjoining area with private door.  The shower head was excellant which is not always the case.  Overall I was very happy especially with the size of the room and the amenities. The air conditioner worked very well.  Everything worked fine and the management were courteous and friendly/.  The ice machine was close and worked fine.  I would reccommend it as long as you do not want a newer more modern place, but you will not find one in this price range. I had made a previous reservation at the Motel 6 next to it, but when I got to the room I immediately cancelled it. It was terrible.More</t>
   </si>
   <si>
+    <t>Kai P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r131233140-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -530,6 +581,9 @@
     <t>I got four rooms. 1 tv didnt work. The desk guy called me a liar. Nuff said.</t>
   </si>
   <si>
+    <t>secretshopped</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r106428562-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -555,6 +609,9 @@
   </si>
   <si>
     <t>Front desk clerk friendly, room smelled very clean.  But, bathroom is tiny, furniture stained.  Sheets are old and thin with only a mattress pad under the sheet.  Bed itself is old and bows in the middle but the worst is the horrendous stain on the box spring that would be very obvious to anyone making a bed.  Were the beds clean and updated to "back" friendly mattresses would be better.  The pool was dirty, cleaning equipment left floating in the pool, dirt covered bottom of pool although clerk states chemicals had been added to pool.  Pool area has weeds grown up through the cracks.  Continental breakfast, Cheerios and Fruit loops with watered down orange juice.More</t>
+  </si>
+  <si>
+    <t>KendraC</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r5045306-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
@@ -1097,28 +1154,32 @@
       <c r="A2" t="n">
         <v>21266</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>169500</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="s"/>
@@ -1134,51 +1195,52 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
-      <c r="Y2" t="s"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>21266</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>3661</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1194,56 +1256,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="X3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>21266</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>169501</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1257,50 +1323,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>21266</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>8475</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1314,50 +1384,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>21266</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>2379</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1371,50 +1445,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>21266</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>169502</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1428,50 +1506,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>21266</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>169503</v>
+      </c>
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="O8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1485,50 +1567,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>21266</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>1029</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P9" t="n">
         <v>2</v>
@@ -1546,56 +1632,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="X9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="Y9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>21266</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>169504</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="O10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P10" t="n">
         <v>2</v>
@@ -1613,47 +1703,51 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="X10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="Y10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>21266</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>4711</v>
+      </c>
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="J11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="K11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="L11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
@@ -1670,56 +1764,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="X11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="Y11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>21266</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>169505</v>
+      </c>
+      <c r="C12" t="s">
+        <v>129</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="J12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="L12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="O12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1737,47 +1835,51 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="X12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="Y12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>21266</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>169506</v>
+      </c>
+      <c r="C13" t="s">
+        <v>139</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="J13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="K13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="L13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
@@ -1794,47 +1896,51 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="X13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="Y13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>21266</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>169507</v>
+      </c>
+      <c r="C14" t="s">
+        <v>148</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="J14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="K14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="L14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
@@ -1863,50 +1969,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>21266</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>169508</v>
+      </c>
+      <c r="C15" t="s">
+        <v>155</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="J15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="K15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="L15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="O15" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -1930,41 +2040,45 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>21266</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>169509</v>
+      </c>
+      <c r="C16" t="s">
+        <v>162</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="J16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="K16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="L16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
@@ -1991,56 +2105,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="X16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="Y16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>21266</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>169510</v>
+      </c>
+      <c r="C17" t="s">
+        <v>171</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="J17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="K17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="L17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="O17" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -2064,50 +2182,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>21266</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>169511</v>
+      </c>
+      <c r="C18" t="s">
+        <v>179</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="J18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="K18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="O18" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -2131,50 +2253,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>21266</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>169512</v>
+      </c>
+      <c r="C19" t="s">
+        <v>185</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="J19" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="K19" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="L19" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="O19" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -2196,47 +2322,51 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="X19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="Y19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>21266</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>169513</v>
+      </c>
+      <c r="C20" t="s">
+        <v>195</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="J20" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="K20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="L20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
@@ -2263,7 +2393,7 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_598.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_598.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="287">
   <si>
     <t>STR#</t>
   </si>
@@ -147,28 +147,100 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>PegiSioux</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/26/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r575437412-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>56852</t>
+  </si>
+  <si>
+    <t>126411</t>
+  </si>
+  <si>
+    <t>575437412</t>
+  </si>
+  <si>
+    <t>04/24/2018</t>
+  </si>
+  <si>
+    <t>run down property</t>
+  </si>
+  <si>
+    <t>I booked this motel because friends were were staying here for the weekend.  None of us will ever be back.  The property is run down with only minimal cleaning done in the rooms.  There was mold around the side of the tub.  There were no drawers for clothes and there was not even shampoo in the bathroom.  They did everything possible to cut expenses.  The bed was just a cheap matress on a platform and the matress slides around.  It is also not very comfortable.  The walls are very thin so you will hear your neighbor's TV and snoring.  When we went to check out at 8:00 AM, we had to wait outside for 10-15 minutes even though we ran the bell over and over again.  Apparenty they only have one person on duty at a time and he was not very interested in providing service to guests.  if yu are looking for breakfast you find only coffee here.  Again, as little accomadation as possible.  The room had a refrigerator and microwave as well as good lighting and pleanty of electrical outlets.  However, the refrigerator in one of my friend's room leaked and got her suitcase and clothes wet, so I would not count on either working very well.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Waxahachie, responded to this reviewResponded April 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2018</t>
+  </si>
+  <si>
+    <t>I booked this motel because friends were were staying here for the weekend.  None of us will ever be back.  The property is run down with only minimal cleaning done in the rooms.  There was mold around the side of the tub.  There were no drawers for clothes and there was not even shampoo in the bathroom.  They did everything possible to cut expenses.  The bed was just a cheap matress on a platform and the matress slides around.  It is also not very comfortable.  The walls are very thin so you will hear your neighbor's TV and snoring.  When we went to check out at 8:00 AM, we had to wait outside for 10-15 minutes even though we ran the bell over and over again.  Apparenty they only have one person on duty at a time and he was not very interested in providing service to guests.  if yu are looking for breakfast you find only coffee here.  Again, as little accomadation as possible.  The room had a refrigerator and microwave as well as good lighting and pleanty of electrical outlets.  However, the refrigerator in one of my friend's room leaked and got her suitcase and clothes wet, so I would not count on either working very well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r575056164-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>575056164</t>
+  </si>
+  <si>
+    <t>04/22/2018</t>
+  </si>
+  <si>
+    <t>RUN</t>
+  </si>
+  <si>
+    <t>Don't walk...RUN from this dump.I don't know where to begin.Floating feces in the lobby bathroom.Smell of curry was overpowering.No lock on my door because it looked like a police bust.Prostitution John watching me enter my room.Cigarette burns and holes in linens. Closet door knob came off in my hands. Peeling paint everywhere. BLACK MOLD on A/C unit vents. I have photos of all. I ran and demanded a refund. I was furious. Gladly given to me.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>6Team, Guest Relations Manager at Motel 6 Waxahachie, responded to this reviewResponded April 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2018</t>
+  </si>
+  <si>
+    <t>Don't walk...RUN from this dump.I don't know where to begin.Floating feces in the lobby bathroom.Smell of curry was overpowering.No lock on my door because it looked like a police bust.Prostitution John watching me enter my room.Cigarette burns and holes in linens. Closet door knob came off in my hands. Peeling paint everywhere. BLACK MOLD on A/C unit vents. I have photos of all. I ran and demanded a refund. I was furious. Gladly given to me.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r529648265-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
-    <t>56852</t>
-  </si>
-  <si>
-    <t>126411</t>
-  </si>
-  <si>
     <t>529648265</t>
   </si>
   <si>
-    <t>October 3, 2017</t>
-  </si>
-  <si>
-    <t>Gary L</t>
+    <t>10/03/2017</t>
+  </si>
+  <si>
+    <t>I was expecting a budget motel, but this was beyond my expectations!</t>
+  </si>
+  <si>
+    <t>My husband and I booked the Motel 6 at the last minute, so we were ok with a budget place with no frills. We were going to Ennis, Tx. for NHRDA World Finals. Well, the motel exceeded my expectations for budget motels, not in a good way though. The first step into the office was an assault on my sense of smell-it was terrible! It smelled like things had gotten soaked in there and not dried out yet-rotting, mildewy, yuk. The room was on the back side-very good, away from the freeway. Unfortunately, the room smelled just as horrible as the office but with old cigarette smoke mixed with the sour, rotting, mold smell. The walls were very dirty-I do not want to know what was dribbled down them. The bathroom was dirty, except the inside of the toilet-nice and clean but again, nasty looking stuff dribbled down the walls, old, chopped up paint, hair, and dust around the base of the toilet, cigarette holes in the bedcovers. The smell seemed to be concentrated in my pillow, I put my sweatshirt over it and tried to sleep but the smell permeated my nose and woke me up a few times. My hair smelled like it the next day. The morning came early with a screaming, obscene filled, knock down drag out fight in the room next door. We were very concerned for someone`s safety so we called the front desk,...My husband and I booked the Motel 6 at the last minute, so we were ok with a budget place with no frills. We were going to Ennis, Tx. for NHRDA World Finals. Well, the motel exceeded my expectations for budget motels, not in a good way though. The first step into the office was an assault on my sense of smell-it was terrible! It smelled like things had gotten soaked in there and not dried out yet-rotting, mildewy, yuk. The room was on the back side-very good, away from the freeway. Unfortunately, the room smelled just as horrible as the office but with old cigarette smoke mixed with the sour, rotting, mold smell. The walls were very dirty-I do not want to know what was dribbled down them. The bathroom was dirty, except the inside of the toilet-nice and clean but again, nasty looking stuff dribbled down the walls, old, chopped up paint, hair, and dust around the base of the toilet, cigarette holes in the bedcovers. The smell seemed to be concentrated in my pillow, I put my sweatshirt over it and tried to sleep but the smell permeated my nose and woke me up a few times. My hair smelled like it the next day. The morning came early with a screaming, obscene filled, knock down drag out fight in the room next door. We were very concerned for someone`s safety so we called the front desk, they did not respond right away, so we called again and finally, someone came and stood outside the door to make sure no one was killed I guess. The fight seemed to stop on its own with no intervention from management, that we saw anyway. I did stop at the office to ask if I could get a different, clean pillow as mine stank to high heaven. They did give me 3 new ones. All in all, I don't think I will be staying there again. I am all for budget motels and the convenience and low cost they offer-but run down and disgusting? No, thanks, never again at this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Waxahachie, responded to this reviewResponded October 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2017</t>
+  </si>
+  <si>
+    <t>My husband and I booked the Motel 6 at the last minute, so we were ok with a budget place with no frills. We were going to Ennis, Tx. for NHRDA World Finals. Well, the motel exceeded my expectations for budget motels, not in a good way though. The first step into the office was an assault on my sense of smell-it was terrible! It smelled like things had gotten soaked in there and not dried out yet-rotting, mildewy, yuk. The room was on the back side-very good, away from the freeway. Unfortunately, the room smelled just as horrible as the office but with old cigarette smoke mixed with the sour, rotting, mold smell. The walls were very dirty-I do not want to know what was dribbled down them. The bathroom was dirty, except the inside of the toilet-nice and clean but again, nasty looking stuff dribbled down the walls, old, chopped up paint, hair, and dust around the base of the toilet, cigarette holes in the bedcovers. The smell seemed to be concentrated in my pillow, I put my sweatshirt over it and tried to sleep but the smell permeated my nose and woke me up a few times. My hair smelled like it the next day. The morning came early with a screaming, obscene filled, knock down drag out fight in the room next door. We were very concerned for someone`s safety so we called the front desk,...My husband and I booked the Motel 6 at the last minute, so we were ok with a budget place with no frills. We were going to Ennis, Tx. for NHRDA World Finals. Well, the motel exceeded my expectations for budget motels, not in a good way though. The first step into the office was an assault on my sense of smell-it was terrible! It smelled like things had gotten soaked in there and not dried out yet-rotting, mildewy, yuk. The room was on the back side-very good, away from the freeway. Unfortunately, the room smelled just as horrible as the office but with old cigarette smoke mixed with the sour, rotting, mold smell. The walls were very dirty-I do not want to know what was dribbled down them. The bathroom was dirty, except the inside of the toilet-nice and clean but again, nasty looking stuff dribbled down the walls, old, chopped up paint, hair, and dust around the base of the toilet, cigarette holes in the bedcovers. The smell seemed to be concentrated in my pillow, I put my sweatshirt over it and tried to sleep but the smell permeated my nose and woke me up a few times. My hair smelled like it the next day. The morning came early with a screaming, obscene filled, knock down drag out fight in the room next door. We were very concerned for someone`s safety so we called the front desk, they did not respond right away, so we called again and finally, someone came and stood outside the door to make sure no one was killed I guess. The fight seemed to stop on its own with no intervention from management, that we saw anyway. I did stop at the office to ask if I could get a different, clean pillow as mine stank to high heaven. They did give me 3 new ones. All in all, I don't think I will be staying there again. I am all for budget motels and the convenience and low cost they offer-but run down and disgusting? No, thanks, never again at this place.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r517166030-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
@@ -189,9 +261,6 @@
     <t>August 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>6Team, Brand Experience Team Member at Motel 6 Waxahachie, responded to this reviewResponded August 29, 2017</t>
   </si>
   <si>
@@ -201,9 +270,6 @@
     <t>Complained three times to manager about noise problem room 113 next door kept TV on all night- Manager finally called me back after 4 days and said we did not have noise problem- WARNING Motel 6 Guest Relations will not help you with any problems because it is left up to Independent Motel Manager- Manager did offer 50 percent off next time ( wanted full refund which she would not do) Why would I go back to motel when they could resolve noise problem&gt;More</t>
   </si>
   <si>
-    <t>Iris M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r490294206-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -222,13 +288,46 @@
     <t>June 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>This is a motel that must allow weekly rentals. All night long people were hanging out on side walk drinking yelling ect. Was literally afraid to walk mt dog. I left at 4 am, giving up getting any sleep. Room was 67.00. High for a dump. At 2 am my phone in room rang repeatedly,  have no clue what that was about. When I called the desk to complain,  the next morning the guy hung up on me. For safety reasons I did not ask for anyone to come and break up the party last night. Did not need some stupid hotel clerk telling anyone I complained.  Drive on don't stop.More</t>
   </si>
   <si>
-    <t>Darren H</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r486620433-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>486620433</t>
+  </si>
+  <si>
+    <t>05/22/2017</t>
+  </si>
+  <si>
+    <t>It's a Motel 6 not a Hilton</t>
+  </si>
+  <si>
+    <t>I looked for a budget hotel and got what I was looking for. No complaints though. Room and bathroom were reasonably clean, that's all I need. Well, let me take that back, I needed a pet friendly hotel and this hotel was that. I had to make it clear I didn't want any room service while I stayed (3 nights) as I didn't want my cat to get out, and they respected my wishes, so my stay was all good as far as I'm concerned. Hotel was convenient to everything I needed to get to. Staff was friendly and cooperative. Had a micro and mini fridge in room which I appreciated.MoreShow less</t>
+  </si>
+  <si>
+    <t>I looked for a budget hotel and got what I was looking for. No complaints though. Room and bathroom were reasonably clean, that's all I need. Well, let me take that back, I needed a pet friendly hotel and this hotel was that. I had to make it clear I didn't want any room service while I stayed (3 nights) as I didn't want my cat to get out, and they respected my wishes, so my stay was all good as far as I'm concerned. Hotel was convenient to everything I needed to get to. Staff was friendly and cooperative. Had a micro and mini fridge in room which I appreciated.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r464520328-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>464520328</t>
+  </si>
+  <si>
+    <t>03/04/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's a Budget Stay at best. </t>
+  </si>
+  <si>
+    <t>The rooms are cavernous meaning no carpets at all. Flat screen TV is too small for placement and has to be turned up loud to hear. Walls are very thin resulting in every noise being heard through the night, including the neighbors TV. No light in the Sink area at all and the Bulbs were missing. The cover was on top of the towel rack. No Shampoo, Conditioner, or Soap.The beds are on Laminate plywood and constantly slide off the platform through the night when you roll over. Mattress is thin and feels like sleeping on a Futon at best. If I had to equate this to anything it would be compatible to sleeping in a dorm room. Don't expect much for the stay other than a budget. Also we couldn't park anywhere near our room. We had to park out front, walk around back, up the stairs, half way down the hall to our room. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>The rooms are cavernous meaning no carpets at all. Flat screen TV is too small for placement and has to be turned up loud to hear. Walls are very thin resulting in every noise being heard through the night, including the neighbors TV. No light in the Sink area at all and the Bulbs were missing. The cover was on top of the towel rack. No Shampoo, Conditioner, or Soap.The beds are on Laminate plywood and constantly slide off the platform through the night when you roll over. Mattress is thin and feels like sleeping on a Futon at best. If I had to equate this to anything it would be compatible to sleeping in a dorm room. Don't expect much for the stay other than a budget. Also we couldn't park anywhere near our room. We had to park out front, walk around back, up the stairs, half way down the hall to our room. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r417778540-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
@@ -252,9 +351,6 @@
     <t>Worst hotel I have ever stayed at in my life. The room was extremely dirty...... But let's be honest it's a motel 6 we need to lower our standards. I tried to take a drip in the pool but there whereHey girl I wanted to see if you were still wanting to play rings or if you are picking up with that other team we have 7 girls and we are playing 6-4 so we do have a few girls on the team more Hey girl I wanted to see if you were still wanting to play rings or if you are picking up with that other team we have 7 girls and we are playing 6-4 so we do have a few girls on the team pubic hairs in the pools then I was ok with. Sure construction works looked at me up and down like I was a piece of meat. The sheets were dirty and the bathroom was a place I wish I didn't have to use. We all expect this from a motel six..........until someone breaks into your room at 2:45 am. I jumped out of bed and screamed my head off, I was so traumatized by the situation.  It was so unbelievable life changing. the hotel completely blew If off. They had no understanding or compassion. Please for your safety never, ever stay there. It's unsafe and it has changed my life forever. This sweet...Worst hotel I have ever stayed at in my life. The room was extremely dirty...... But let's be honest it's a motel 6 we need to lower our standards. I tried to take a drip in the pool but there whereHey girl I wanted to see if you were still wanting to play rings or if you are picking up with that other team we have 7 girls and we are playing 6-4 so we do have a few girls on the team more Hey girl I wanted to see if you were still wanting to play rings or if you are picking up with that other team we have 7 girls and we are playing 6-4 so we do have a few girls on the team pubic hairs in the pools then I was ok with. Sure construction works looked at me up and down like I was a piece of meat. The sheets were dirty and the bathroom was a place I wish I didn't have to use. We all expect this from a motel six..........until someone breaks into your room at 2:45 am. I jumped out of bed and screamed my head off, I was so traumatized by the situation.  It was so unbelievable life changing. the hotel completely blew If off. They had no understanding or compassion. Please for your safety never, ever stay there. It's unsafe and it has changed my life forever. This sweet Indiana girl will learn to use a gun. This stay at this hotel has changed me forever.More</t>
   </si>
   <si>
-    <t>Lisa S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r390433093-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -276,9 +372,6 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
-    <t>Louise H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r390182827-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -294,7 +387,52 @@
     <t>We're travelling through USA and after being on the road for 12 hours we booked into this Motel. The clerk was very friendly the room was basic but clean the bed comfortable. Had a wonderful sleep, unlimited coffee in reception in the morning.</t>
   </si>
   <si>
-    <t>77elven</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r386467092-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>386467092</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Beds were awful</t>
+  </si>
+  <si>
+    <t>So, it was a place to stay and certainly I suppose I can say "we got what we paid for" with this one. We were headed to San Antonio to watch my son graduate Basic Military Training in the Air Force and found this motel along the way. Just outside of Dallas and right off the interstate. Prices were super cheap so we were open minded of what was to come for sure. They appeared to be newly updated. Hardwood looking floors, platform beds and more updated bedding. The beds... they were probably as close to sleeping on the hard floor &amp; the rooms were facing the interstate, there was absolutely no sound protection what so ever. It felt like we were in the middle of the interstate all night long. Kids slept fine, but the adults all felt like we had no sleep. If you are looking for a place to save money, this works. If you are looking for anything more you will be highly disappointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>So, it was a place to stay and certainly I suppose I can say "we got what we paid for" with this one. We were headed to San Antonio to watch my son graduate Basic Military Training in the Air Force and found this motel along the way. Just outside of Dallas and right off the interstate. Prices were super cheap so we were open minded of what was to come for sure. They appeared to be newly updated. Hardwood looking floors, platform beds and more updated bedding. The beds... they were probably as close to sleeping on the hard floor &amp; the rooms were facing the interstate, there was absolutely no sound protection what so ever. It felt like we were in the middle of the interstate all night long. Kids slept fine, but the adults all felt like we had no sleep. If you are looking for a place to save money, this works. If you are looking for anything more you will be highly disappointed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r319111366-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>319111366</t>
+  </si>
+  <si>
+    <t>10/15/2015</t>
+  </si>
+  <si>
+    <t>I had such high hopes..</t>
+  </si>
+  <si>
+    <t>The newly remodeled rooms were very nice. Loved the decor. However, at check in, we were told both our rooms were ready. One had no toilet paper (never did get it- we just gave up and bought our own),and the second room hadn't been touched. We waited in the one room (8 of us) for them to clean it . Their *20 minutes* turned into over an hour. The cleaning lady had drapes open while she cleaned, so when we walked by and looked to see if she was about done (we were tired - just drove 10 hours to get there ) we saw a 6ish year old boy bouncing and laying all over the clean sheets she had just put on! How sanitary is that and it brings security concerns for when our rooms were cleaned during stay if we didn't lock everything up!! During our 3 night stay, when the rooms did get cleaned, there would be trash bags left on our bathroom counter from ANOTHER ROOM, and only some of the beds were made. We gave up asking for help due to the rudeness we encountered and were not comfortable at all. It had an all over undesirable even though the neighborhood wasn't itself bad- I wouldn't suggest staying there with children. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>6Team, Team 6 at Motel 6 Waxahachie, responded to this reviewResponded October 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2015</t>
+  </si>
+  <si>
+    <t>The newly remodeled rooms were very nice. Loved the decor. However, at check in, we were told both our rooms were ready. One had no toilet paper (never did get it- we just gave up and bought our own),and the second room hadn't been touched. We waited in the one room (8 of us) for them to clean it . Their *20 minutes* turned into over an hour. The cleaning lady had drapes open while she cleaned, so when we walked by and looked to see if she was about done (we were tired - just drove 10 hours to get there ) we saw a 6ish year old boy bouncing and laying all over the clean sheets she had just put on! How sanitary is that and it brings security concerns for when our rooms were cleaned during stay if we didn't lock everything up!! During our 3 night stay, when the rooms did get cleaned, there would be trash bags left on our bathroom counter from ANOTHER ROOM, and only some of the beds were made. We gave up asking for help due to the rudeness we encountered and were not comfortable at all. It had an all over undesirable even though the neighborhood wasn't itself bad- I wouldn't suggest staying there with children. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r313602258-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
@@ -315,15 +453,9 @@
     <t>September 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>I could not believe the $39.99 price and then I used a ARP for even more of a discount got to the motel the motel clerk gave me room 218 went to room 218 open the door bed was not made room was not clean this was about to 2:30 in the afternoon went back to the front desk he gave me room 111 the room was excellent clean smell good I cannot believe why this motel hasn't got a higher rating my stay was unbelievable very clean neat motel flat screen TV on the wall this is my only complaint it was boxed in speakers were muscle because of itMore</t>
   </si>
   <si>
-    <t>Robert R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r311891521-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -351,9 +483,6 @@
     <t>Stay somewhere else, difficult access from interstate, no food, gas or services nearby, rooms poorly maintained, locks may not work. Have to drive into town for just even a McDonalds. Please see my pictures. holes in bathroom door, beadspread, security lock on room door non-operableMore</t>
   </si>
   <si>
-    <t>gordon61</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r308985517-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -378,7 +507,46 @@
     <t>This was obviously a nice place when it was new, four or five years ago. Right now it's horrible. These people don't clean anything and EVERYTHING I touched was sticky! Something had spilled on one side of the TV table . . . and they just left it there!The floor is faux wood, which is fine, it actually looks really nice. When I took my shoes off however, I discovered my feet were sticking to the floor everywhere I stepped. They really lost me on that one . . .The thermostat on the A/C unit was broken so it was either freezing or off. When it was on, the curtains blew up and you could see into the room from outside. I ended up pinning the curtains to the windowsill with my shoes.The linens were all stained and the comforter on the bed was basically a colored sheet. When I called the office for a blanket for my wife, the one they brought me was the rattiest thing I've ever seen. The edging was all torn off and it was full of holes . . . it looked like he'd just dragged it off his own bed!Outside the room the paint was peeling and the overhead light was covered with cobwebs and full of dead bugs.These people should NOT be managing a motel . . .More</t>
   </si>
   <si>
-    <t>Robert A</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r280492570-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>280492570</t>
+  </si>
+  <si>
+    <t>06/15/2015</t>
+  </si>
+  <si>
+    <t>Gross!!</t>
+  </si>
+  <si>
+    <t>Dirty towels, dirty floors, room smells bad, roaches! roaches! roaches! Tried to talked to the reception but he just said , he apologized and said he would give us another room after we said we were leaving, no discount or anything. Didn't sleep well so had to leave at 5am..tskk..tsskk..</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r278365590-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>278365590</t>
+  </si>
+  <si>
+    <t>06/06/2015</t>
+  </si>
+  <si>
+    <t>Awful....  Never Again!!!! Graduation ...no more rooms in area!!</t>
+  </si>
+  <si>
+    <t>There is door between rooms the knob is missing and can see in other room..plus the sheets were nasty the floors dirty a dead roach in fridge and wires hanging where smoke detector is suppose to be... handed us clean sheets to remake bedNever Again MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Waxahachie, responded to this reviewResponded June 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2015</t>
+  </si>
+  <si>
+    <t>There is door between rooms the knob is missing and can see in other room..plus the sheets were nasty the floors dirty a dead roach in fridge and wires hanging where smoke detector is suppose to be... handed us clean sheets to remake bedNever Again More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r278191597-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
@@ -396,18 +564,9 @@
     <t>Ok so we drive up not sure what the problem was but having 2 Waxahachie Police in your drive one being a K-9 unit is never a good thing. So we continue up to the building. Swimming POOL is Swamp Things hotel room. Not pea green or a light lime green no its a swamp. Then we get into the office having much doubt about staying at this point Apu (Simpons reference) is behind the counter can barely understand him as we check in. Figure one night cant be that bad... WRONG.... walk 3 feet into hotel room smell Marijauna see people that have been enjoing the afternoon with copius amounts of beer walking (wobbling) around. This was the shortest stay for me ever I think less than 5 minutes actually in the room. We got a refund and went to another area hotel paid 4x the price for a two night stay but its money well spent considering that we did not want Swamp Thing to visit. MoreShow less</t>
   </si>
   <si>
-    <t>6Team, Brand Experience Team member at Motel 6 Waxahachie, responded to this reviewResponded June 8, 2015</t>
-  </si>
-  <si>
-    <t>Responded June 8, 2015</t>
-  </si>
-  <si>
     <t>Ok so we drive up not sure what the problem was but having 2 Waxahachie Police in your drive one being a K-9 unit is never a good thing. So we continue up to the building. Swimming POOL is Swamp Things hotel room. Not pea green or a light lime green no its a swamp. Then we get into the office having much doubt about staying at this point Apu (Simpons reference) is behind the counter can barely understand him as we check in. Figure one night cant be that bad... WRONG.... walk 3 feet into hotel room smell Marijauna see people that have been enjoing the afternoon with copius amounts of beer walking (wobbling) around. This was the shortest stay for me ever I think less than 5 minutes actually in the room. We got a refund and went to another area hotel paid 4x the price for a two night stay but its money well spent considering that we did not want Swamp Thing to visit. More</t>
   </si>
   <si>
-    <t>abbennett</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r274875829-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -435,9 +594,6 @@
     <t>I chose Motel 6 because of the price, thinking that it couldn't be THAT bad. While the room had a fridge, microwave and television, that was it. The shower curtain looked like it might have had mold on it. There was not one wall that was free of dents. dings, and scratches. I'm not sure that the place was really clean, but I cannot in all honesty say that it wasn't. The desk clerk seemed unhappy that I had interrupted his television watching to ask about in-house services.Truth to be told, since I was there for only one night, and didn't plan to remain any longer, I might have gotten what I paid for. But there was no doubt that they could have done much more to make the place more presentable, welcoming, and comfortable.More</t>
   </si>
   <si>
-    <t>669MikeH669</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r270826196-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -462,7 +618,46 @@
     <t>We were gonna stay here for Scarborough fair but as we drive up we noticed the green pool with something slimy floating around on top. The lot is overgrown and it just seems like a bad decision to stay here so we didn't. We went next door to super 8. Their pool is crystal clearMore</t>
   </si>
   <si>
-    <t>Nilrem435</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r266125952-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>266125952</t>
+  </si>
+  <si>
+    <t>04/16/2015</t>
+  </si>
+  <si>
+    <t>What happened?</t>
+  </si>
+  <si>
+    <t>I stayed here about a year ago and it was decent. Nothing special, but certainly okay--which is why, when I needed a last minute reservation and couldn't get into my hotel of choice, I booked a room here.NOT THIS TIME! Safety lock on the door was broken. Pubic hair in the shower. Sink only marginally clean. Oily residue on the counter.  Toilet paper--at least it had some--was sitting on top of the holder, not in it. And there was a huge streamer of toilet paper stuffed into the peephole in the door. Excuse me??No, I won't be going back.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Waxahachie, responded to this reviewResponded April 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2015</t>
+  </si>
+  <si>
+    <t>I stayed here about a year ago and it was decent. Nothing special, but certainly okay--which is why, when I needed a last minute reservation and couldn't get into my hotel of choice, I booked a room here.NOT THIS TIME! Safety lock on the door was broken. Pubic hair in the shower. Sink only marginally clean. Oily residue on the counter.  Toilet paper--at least it had some--was sitting on top of the holder, not in it. And there was a huge streamer of toilet paper stuffed into the peephole in the door. Excuse me??No, I won't be going back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r255102884-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>255102884</t>
+  </si>
+  <si>
+    <t>02/18/2015</t>
+  </si>
+  <si>
+    <t>Got my money back!</t>
+  </si>
+  <si>
+    <t>The motel was undergoing a rehab. There were no fire detectors in any room, there were open, unknown if hot, wires hanging from the ceiling, the parking area was covered in nails, mattreses, there was no hot water for 3 days, they were taking off sheets, drying them, and putting them back out in other rooms without washing, there were no doors on the washing area, the ice machine was moldy, surveillance cameras were not to NEC code...I got $500.00 back, and a free one night stay at any Motel 6.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r230884834-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
@@ -491,9 +686,6 @@
 Now...The reason Motel 6 Leaves the light on is because it may never come back on again if it was turned off.When I first drove up I noticed a structural support on the second floor over the pool appeared to be misaligned, leaning and twisted. Upon entering the lobby I was overwhelmed with a horrid smell, I can't even think of what it could be compared to. Upon checking in the lone staff person seemed very pleasant and at least competent. As she was making the key she said, "If you don't like the room you can switch." So even the staff is well aware that their facilities are subpar and expect complaints.I drove around to the aptly named 'backside' of the structure, there's a few anatomical descriptions that are fitting but not much better. Most of the exterior lights have at least two years worth of dead bugs in their covers, and quite a few are missing covers. The paint is peeling in several locations and on the second floor breezeway near room 220 there is an opening to the attic fully opened and accessible to any type of vermin seeking a place to rest, urinate, poop, give birth or even that other function rundown motels are oft used for in stories. The base of the stairs in this breezeway is home to another very unpleasant odor, how it manages to linger outdoors is beyond me.Now the room itself. It was freezing cold when I entered it. So at least the AC works well. Kinda. All controls for the AC have been completely ripped out of their console and the only way to 'adjust' the AC is to unplug it from the wall. On the opposite side of the bed there were at least two dead bugs in the middle of the floor (which means there's thousands in the walls and possibly dozens in the bed). There was hair on the floor of the bathroom, and a good size chunk of hair folded up into one of the bath towels. When I tried to wash my hands I found the sink only had hot water. I reached under and turned the cold water on and was promptly met with a stream of cold water running out from somewhere under the sink and all over the floor.This place is a dog pound at best. Definitely not worth the $50 per night stay. Go somewhere else. I am surprised that Motel 6 allows such an operation to use it's corporate name.More</t>
   </si>
   <si>
-    <t>RogerTheChipGuy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r189214019-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -512,9 +704,6 @@
     <t>December 2013</t>
   </si>
   <si>
-    <t>JamesPMason</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r182513715-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -539,7 +728,40 @@
     <t>Everything you'd expect in a slum city motel for only twice the price.Nothing works. TV is broke. Fridge is broke. Microwave is broke. Shower head is broke. Half the outlets don't even have power to them.Bed is horrible. Pillows (2 for king size) are flat. Towels are sandpaper. Shower is filthy (with hair). Carpet is 100% soiled. No standard items at all.New bedspreads with "honeymoon suite" pillows is this places idea of an renovation.Nearly impossible to get to. Nothing nearby. Must drive two miles to head south on 1-35.More</t>
   </si>
   <si>
-    <t>maco s</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r159545974-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>159545974</t>
+  </si>
+  <si>
+    <t>05/03/2013</t>
+  </si>
+  <si>
+    <t>Never Again!</t>
+  </si>
+  <si>
+    <t>First of all, I booked this room from Motel 6 website BECAUSE it showed this place to be new.  It is NOT.  It's remodeled.  I thought that was very misleading.  1st problem: Water went from comfortable to cold while I was showering.  I would have taken a bath, but the tub was not clean enough for that.2nd problem: Refrigerator was not cold.Never staying here again and will not recommend.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r135514773-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>135514773</t>
+  </si>
+  <si>
+    <t>07/26/2012</t>
+  </si>
+  <si>
+    <t>Comfortable, not expensive</t>
+  </si>
+  <si>
+    <t>The room was kept clean. Hotel staff were friendly and helpful. Convenient location. The room contained a television (excellent reception), mini-fridge, microwave, coffee maker, iron, and ironing board. Definitely worth a second visit!</t>
+  </si>
+  <si>
+    <t>April 2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r133643366-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
@@ -563,9 +785,6 @@
     <t>When I first walked in i realized it was older than i expected, but it was very spacious and clean. I had a kingsize bed.  Itg was not the very best mattress, but was comfortable.  It had a loveseat and table, a mini frig and microwave, a coffee maker with coffe supplied, a hairdryer and an older TV about 27" that worked well, cable, and free local calls.  The bathroom vanity was very nice since being older it was open to the bedroom and extremely long with pleanty of room for several people to use.  The newer hotels have a much smaller vanity.  The commode and tub/shower were in adjoining area with private door.  The shower head was excellant which is not always the case.  Overall I was very happy especially with the size of the room and the amenities. The air conditioner worked very well.  Everything worked fine and the management were courteous and friendly/.  The ice machine was close and worked fine.  I would reccommend it as long as you do not want a newer more modern place, but you will not find one in this price range. I had made a previous reservation at the Motel 6 next to it, but when I got to the room I immediately cancelled it. It was terrible.More</t>
   </si>
   <si>
-    <t>Kai P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r131233140-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -581,9 +800,6 @@
     <t>I got four rooms. 1 tv didnt work. The desk guy called me a liar. Nuff said.</t>
   </si>
   <si>
-    <t>secretshopped</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r106428562-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
   </si>
   <si>
@@ -611,7 +827,46 @@
     <t>Front desk clerk friendly, room smelled very clean.  But, bathroom is tiny, furniture stained.  Sheets are old and thin with only a mattress pad under the sheet.  Bed itself is old and bows in the middle but the worst is the horrendous stain on the box spring that would be very obvious to anyone making a bed.  Were the beds clean and updated to "back" friendly mattresses would be better.  The pool was dirty, cleaning equipment left floating in the pool, dirt covered bottom of pool although clerk states chemicals had been added to pool.  Pool area has weeds grown up through the cracks.  Continental breakfast, Cheerios and Fruit loops with watered down orange juice.More</t>
   </si>
   <si>
-    <t>KendraC</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r81715918-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>81715918</t>
+  </si>
+  <si>
+    <t>10/01/2010</t>
+  </si>
+  <si>
+    <t>What a Great Place for the Price</t>
+  </si>
+  <si>
+    <t>I wasn't expecting much from this stay; but was pleasantly surprised. Probably the cleanest room I have had at any price for years. The hotel staff was great and so was the entire stay. Only planned on staying 6 nights, but extended to the 7th so I would not have to gamble an extra night on a hotel I knew nothing about. Even the water pressure was a welcome relief. I have stayed at Rodeway Inns before without much to write about. This stay seemed to make up for all of the other bad stays I have had.A little hard to find, but well worth the trouble. Just follow signs to the Super 8 exit 402B (I think, can't remember).MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>I wasn't expecting much from this stay; but was pleasantly surprised. Probably the cleanest room I have had at any price for years. The hotel staff was great and so was the entire stay. Only planned on staying 6 nights, but extended to the 7th so I would not have to gamble an extra night on a hotel I knew nothing about. Even the water pressure was a welcome relief. I have stayed at Rodeway Inns before without much to write about. This stay seemed to make up for all of the other bad stays I have had.A little hard to find, but well worth the trouble. Just follow signs to the Super 8 exit 402B (I think, can't remember).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r70702505-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
+  </si>
+  <si>
+    <t>70702505</t>
+  </si>
+  <si>
+    <t>07/12/2010</t>
+  </si>
+  <si>
+    <t>decent place</t>
+  </si>
+  <si>
+    <t>It's a Rodeway Inn. Room was decent sized, bathroom a bit tiny. Place was well kept and the staff was very nice and acommadating.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>It's a Rodeway Inn. Room was decent sized, bathroom a bit tiny. Place was well kept and the staff was very nice and acommadating.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56852-d126411-r5045306-Motel_6_Waxahachie-Waxahachie_Texas.html</t>
@@ -1154,99 +1409,118 @@
       <c r="A2" t="n">
         <v>21266</v>
       </c>
-      <c r="B2" t="n">
-        <v>169500</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s"/>
-      <c r="L2" t="s"/>
-      <c r="M2" t="s"/>
-      <c r="N2" t="s"/>
-      <c r="O2" t="s"/>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2</v>
+      </c>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>21266</v>
       </c>
-      <c r="B3" t="n">
-        <v>3661</v>
-      </c>
-      <c r="C3" t="s">
-        <v>50</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>51</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" t="s">
-        <v>56</v>
-      </c>
       <c r="O3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
       <c r="R3" t="s"/>
       <c r="S3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
@@ -1256,182 +1530,188 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>21266</v>
       </c>
-      <c r="B4" t="n">
-        <v>169501</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
         <v>46</v>
       </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
-      </c>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>21266</v>
       </c>
-      <c r="B5" t="n">
-        <v>8475</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
         <v>71</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>76</v>
-      </c>
-      <c r="O5" t="s">
-        <v>57</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
+        <v>82</v>
+      </c>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>21266</v>
       </c>
-      <c r="B6" t="n">
-        <v>2379</v>
-      </c>
-      <c r="C6" t="s">
-        <v>78</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="O6" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1445,55 +1725,47 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>21266</v>
       </c>
-      <c r="B7" t="n">
-        <v>169502</v>
-      </c>
-      <c r="C7" t="s">
-        <v>86</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>84</v>
-      </c>
-      <c r="O7" t="s">
-        <v>57</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
@@ -1506,54 +1778,50 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>21266</v>
       </c>
-      <c r="B8" t="n">
-        <v>169503</v>
-      </c>
-      <c r="C8" t="s">
-        <v>92</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="O8" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1567,76 +1835,62 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>21266</v>
       </c>
-      <c r="B9" t="n">
-        <v>1029</v>
-      </c>
-      <c r="C9" t="s">
-        <v>101</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="O9" t="s">
-        <v>107</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>1</v>
-      </c>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>3</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>108</v>
-      </c>
-      <c r="X9" t="s">
-        <v>109</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
         <v>110</v>
       </c>
@@ -1645,115 +1899,101 @@
       <c r="A10" t="n">
         <v>21266</v>
       </c>
-      <c r="B10" t="n">
-        <v>169504</v>
-      </c>
-      <c r="C10" t="s">
-        <v>111</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
         <v>112</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>113</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>114</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>115</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>116</v>
       </c>
-      <c r="M10" t="n">
-        <v>2</v>
-      </c>
-      <c r="N10" t="s">
-        <v>98</v>
-      </c>
       <c r="O10" t="s">
-        <v>85</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>2</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>117</v>
-      </c>
-      <c r="X10" t="s">
-        <v>118</v>
-      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>21266</v>
       </c>
-      <c r="B11" t="n">
-        <v>4711</v>
-      </c>
-      <c r="C11" t="s">
-        <v>120</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" t="s">
         <v>121</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="L11" t="s">
         <v>122</v>
       </c>
-      <c r="J11" t="s">
-        <v>123</v>
-      </c>
-      <c r="K11" t="s">
-        <v>124</v>
-      </c>
-      <c r="L11" t="s">
-        <v>125</v>
-      </c>
       <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s"/>
-      <c r="O11" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>116</v>
+      </c>
+      <c r="O11" t="s">
+        <v>71</v>
+      </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
@@ -1763,129 +2003,117 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>126</v>
-      </c>
-      <c r="X11" t="s">
-        <v>127</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>21266</v>
       </c>
-      <c r="B12" t="n">
-        <v>169505</v>
-      </c>
-      <c r="C12" t="s">
-        <v>129</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="K12" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="O12" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
         <v>3</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>136</v>
-      </c>
-      <c r="X12" t="s">
-        <v>137</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>21266</v>
       </c>
-      <c r="B13" t="n">
-        <v>169506</v>
-      </c>
-      <c r="C13" t="s">
-        <v>139</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="J13" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="K13" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>135</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
@@ -1896,504 +2124,1364 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="X13" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="Y13" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>21266</v>
       </c>
-      <c r="B14" t="n">
-        <v>169507</v>
-      </c>
-      <c r="C14" t="s">
-        <v>148</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="J14" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="K14" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
-      </c>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
-      <c r="P14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" t="n">
-        <v>3</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>144</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>3</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>21266</v>
       </c>
-      <c r="B15" t="n">
-        <v>169508</v>
-      </c>
-      <c r="C15" t="s">
-        <v>155</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
         <v>46</v>
       </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
       <c r="I15" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="J15" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="K15" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="O15" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q15" t="s"/>
       <c r="R15" t="n">
-        <v>3</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>152</v>
+      </c>
+      <c r="X15" t="s">
+        <v>153</v>
+      </c>
       <c r="Y15" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>21266</v>
       </c>
-      <c r="B16" t="n">
-        <v>169509</v>
-      </c>
-      <c r="C16" t="s">
-        <v>162</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
       <c r="I16" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="J16" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="K16" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="L16" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>144</v>
+      </c>
+      <c r="O16" t="s">
+        <v>117</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="n">
         <v>1</v>
       </c>
-      <c r="N16" t="s"/>
-      <c r="O16" t="s"/>
-      <c r="P16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2</v>
-      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="X16" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="Y16" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>21266</v>
       </c>
-      <c r="B17" t="n">
-        <v>169510</v>
-      </c>
-      <c r="C17" t="s">
-        <v>171</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
         <v>46</v>
       </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
       <c r="I17" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="J17" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="K17" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="L17" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="O17" t="s">
-        <v>68</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>4</v>
-      </c>
-      <c r="R17" t="n">
-        <v>4</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>4</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>21266</v>
       </c>
-      <c r="B18" t="n">
-        <v>169511</v>
-      </c>
-      <c r="C18" t="s">
-        <v>179</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
         <v>46</v>
       </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
       <c r="I18" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="J18" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="K18" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="L18" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="O18" t="s">
-        <v>68</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>1</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>174</v>
+      </c>
+      <c r="X18" t="s">
+        <v>175</v>
+      </c>
       <c r="Y18" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>21266</v>
       </c>
-      <c r="B19" t="n">
-        <v>169512</v>
-      </c>
-      <c r="C19" t="s">
-        <v>185</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
         <v>46</v>
       </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
       <c r="I19" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J19" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="K19" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="L19" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
-      </c>
-      <c r="N19" t="s">
-        <v>191</v>
-      </c>
-      <c r="O19" t="s">
-        <v>85</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2</v>
-      </c>
-      <c r="R19" t="n">
-        <v>3</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>4</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="X19" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="Y19" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>21266</v>
       </c>
-      <c r="B20" t="n">
-        <v>169513</v>
-      </c>
-      <c r="C20" t="s">
-        <v>195</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
         <v>46</v>
       </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
       <c r="I20" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="J20" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="K20" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="L20" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>188</v>
+      </c>
+      <c r="O20" t="s">
+        <v>117</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
         <v>3</v>
       </c>
-      <c r="N20" t="s"/>
-      <c r="O20" t="s"/>
-      <c r="P20" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>3</v>
-      </c>
-      <c r="R20" t="s"/>
       <c r="S20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>189</v>
+      </c>
+      <c r="X20" t="s">
+        <v>190</v>
+      </c>
       <c r="Y20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>21266</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>192</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>193</v>
+      </c>
+      <c r="J21" t="s">
+        <v>194</v>
+      </c>
+      <c r="K21" t="s">
+        <v>195</v>
+      </c>
+      <c r="L21" t="s">
+        <v>196</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>197</v>
+      </c>
+      <c r="X21" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21266</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>200</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
         <v>201</v>
+      </c>
+      <c r="J22" t="s">
+        <v>202</v>
+      </c>
+      <c r="K22" t="s">
+        <v>203</v>
+      </c>
+      <c r="L22" t="s">
+        <v>204</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>205</v>
+      </c>
+      <c r="O22" t="s">
+        <v>151</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>206</v>
+      </c>
+      <c r="X22" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21266</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>209</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>210</v>
+      </c>
+      <c r="J23" t="s">
+        <v>211</v>
+      </c>
+      <c r="K23" t="s">
+        <v>212</v>
+      </c>
+      <c r="L23" t="s">
+        <v>213</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>21266</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>214</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>215</v>
+      </c>
+      <c r="J24" t="s">
+        <v>216</v>
+      </c>
+      <c r="K24" t="s">
+        <v>217</v>
+      </c>
+      <c r="L24" t="s">
+        <v>218</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>21266</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>220</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>221</v>
+      </c>
+      <c r="J25" t="s">
+        <v>222</v>
+      </c>
+      <c r="K25" t="s">
+        <v>223</v>
+      </c>
+      <c r="L25" t="s">
+        <v>224</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>225</v>
+      </c>
+      <c r="O25" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>21266</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>226</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>227</v>
+      </c>
+      <c r="J26" t="s">
+        <v>228</v>
+      </c>
+      <c r="K26" t="s">
+        <v>229</v>
+      </c>
+      <c r="L26" t="s">
+        <v>230</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>231</v>
+      </c>
+      <c r="X26" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>21266</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>234</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>235</v>
+      </c>
+      <c r="J27" t="s">
+        <v>236</v>
+      </c>
+      <c r="K27" t="s">
+        <v>237</v>
+      </c>
+      <c r="L27" t="s">
+        <v>238</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>239</v>
+      </c>
+      <c r="O27" t="s">
+        <v>71</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>21266</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>240</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>241</v>
+      </c>
+      <c r="J28" t="s">
+        <v>242</v>
+      </c>
+      <c r="K28" t="s">
+        <v>243</v>
+      </c>
+      <c r="L28" t="s">
+        <v>244</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>245</v>
+      </c>
+      <c r="O28" t="s">
+        <v>151</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>21266</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>246</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>247</v>
+      </c>
+      <c r="J29" t="s">
+        <v>248</v>
+      </c>
+      <c r="K29" t="s">
+        <v>249</v>
+      </c>
+      <c r="L29" t="s">
+        <v>250</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>251</v>
+      </c>
+      <c r="O29" t="s">
+        <v>61</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>21266</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>253</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>254</v>
+      </c>
+      <c r="J30" t="s">
+        <v>255</v>
+      </c>
+      <c r="K30" t="s">
+        <v>256</v>
+      </c>
+      <c r="L30" t="s">
+        <v>257</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>251</v>
+      </c>
+      <c r="O30" t="s">
+        <v>61</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>21266</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>258</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>259</v>
+      </c>
+      <c r="J31" t="s">
+        <v>260</v>
+      </c>
+      <c r="K31" t="s">
+        <v>261</v>
+      </c>
+      <c r="L31" t="s">
+        <v>262</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>263</v>
+      </c>
+      <c r="O31" t="s">
+        <v>117</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>264</v>
+      </c>
+      <c r="X31" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>21266</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>267</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>268</v>
+      </c>
+      <c r="J32" t="s">
+        <v>269</v>
+      </c>
+      <c r="K32" t="s">
+        <v>270</v>
+      </c>
+      <c r="L32" t="s">
+        <v>271</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>272</v>
+      </c>
+      <c r="O32" t="s">
+        <v>61</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>264</v>
+      </c>
+      <c r="X32" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>21266</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>274</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>275</v>
+      </c>
+      <c r="J33" t="s">
+        <v>276</v>
+      </c>
+      <c r="K33" t="s">
+        <v>277</v>
+      </c>
+      <c r="L33" t="s">
+        <v>278</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>279</v>
+      </c>
+      <c r="O33" t="s">
+        <v>117</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>264</v>
+      </c>
+      <c r="X33" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>21266</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>281</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>282</v>
+      </c>
+      <c r="J34" t="s">
+        <v>283</v>
+      </c>
+      <c r="K34" t="s">
+        <v>284</v>
+      </c>
+      <c r="L34" t="s">
+        <v>285</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
